--- a/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13065"/>
+    <workbookView windowWidth="23910" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,31 +233,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,9 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,93 +266,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,24 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,6 +525,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +570,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -578,15 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1515,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:8">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1533,9 +1533,6 @@
       </c>
       <c r="H48" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -1559,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="4:4">

--- a/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\analysis\extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23910" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23910" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -127,14 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,345 +142,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -489,251 +164,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,61 +181,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1089,19 +478,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
@@ -1112,10 +501,11 @@
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1155,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1175,12 +565,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1188,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,12 +598,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1218,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,12 +634,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1251,7 +650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,12 +670,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1284,7 +686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,12 +703,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1314,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,12 +739,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="4:4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1347,7 +755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1367,12 +775,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="4:4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1380,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1400,12 +811,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="4:4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="J33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1413,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,12 +844,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="4:4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="J37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1443,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1466,12 +883,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="4:4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="J41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -1479,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1502,12 +922,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="4:4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="J45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -1515,7 +938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,12 +958,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="J49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -1548,7 +974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1559,17 +985,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="8:8">
+      <c r="J53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H69" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/农社科抽取.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>省农业</t>
-  </si>
-  <si>
-    <t>省</t>
   </si>
   <si>
     <t>省社发</t>
@@ -487,7 +484,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +492,7 @@
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
@@ -636,7 +633,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
@@ -647,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -672,10 +669,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -683,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -705,10 +702,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -716,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -741,10 +738,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -752,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -777,10 +774,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -788,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -813,10 +810,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -824,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -846,10 +843,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -857,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -880,15 +877,15 @@
         <v>15</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -896,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -919,15 +916,15 @@
         <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -935,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -960,10 +957,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -971,12 +968,12 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -987,10 +984,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.15">
